--- a/Projet1/Planning.xlsx
+++ b/Projet1/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Desktop\Open Classrooms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Desktop\Open Classrooms\Projet1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C159E-2C83-4961-806D-A0DB17D1FCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD71451-7760-47D6-9E33-C5FAEF4AA549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55147375-D5AE-4C18-9CC5-E10B21DAF863}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Projets</t>
   </si>
@@ -130,6 +130,66 @@
   </si>
   <si>
     <t>Réalisation</t>
+  </si>
+  <si>
+    <t>Testez votre code Java pour réaliser des applications de qualité</t>
+  </si>
+  <si>
+    <t>Débuggez votre application Java</t>
+  </si>
+  <si>
+    <t>Ecrivez du code Java maintenable avec MVC et SOLID</t>
+  </si>
+  <si>
+    <t>Adoptez les API REST pour vos projets web</t>
+  </si>
+  <si>
+    <t>Construisez des microservices</t>
+  </si>
+  <si>
+    <t>Créez votre application Java avec Spring Boot</t>
+  </si>
+  <si>
+    <t>Modélisez vos bases de données</t>
+  </si>
+  <si>
+    <t>Implémentez vos bases de données relationnelles avec SQL</t>
+  </si>
+  <si>
+    <t>Administrez vos bases de données avec MySQL</t>
+  </si>
+  <si>
+    <t>Utilisez Spring Data pour intéragir avec vos bases de données</t>
+  </si>
+  <si>
+    <t>Sécurisez votre application web avec Spring Security</t>
+  </si>
+  <si>
+    <t>Ecrivez la documentation technique de votre projet</t>
+  </si>
+  <si>
+    <t>Découplez votre architecture web pour des applications Java robustes</t>
+  </si>
+  <si>
+    <t>Optimisez votre déploiement en créant des conteneurs avec Docker</t>
+  </si>
+  <si>
+    <t>Initiez-vous à la gestion de projets agile</t>
+  </si>
+  <si>
+    <t>Optimisez votre architecture Microservices</t>
+  </si>
+  <si>
+    <t>Maîtrisez les bases de données NoSQL</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>2 (déjà vu plus haut)</t>
+  </si>
+  <si>
+    <t>6 (déjà vu plus haut)</t>
   </si>
 </sst>
 </file>
@@ -207,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,13 +290,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,378 +616,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADDC514-F5E4-44CF-ACD3-9BC233ED25C5}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="29.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="41.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="29.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
       <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <v>6</v>
-      </c>
       <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
       <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>40</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7" t="s">
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>55</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="2">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>8</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6" t="s">
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>65</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="E16" s="2">
+        <v>70</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>60</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="3">
+        <v>60</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D24" s="2">
         <v>120</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E24" s="2">
+        <v>140</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="8">
+        <v>40</v>
+      </c>
+      <c r="E27" s="8">
+        <v>25</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D30" s="2">
         <v>130</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="E30" s="2">
+        <v>140</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>7</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7" t="s">
+      <c r="C31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D32" s="2">
         <v>100</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="E32" s="2">
+        <v>110</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>8</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7" t="s">
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="8">
+        <v>8</v>
+      </c>
+      <c r="E34" s="8">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D36" s="2">
         <v>100</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="E36" s="2">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>9</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
+      <c r="C37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="8">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="8">
+        <v>15</v>
+      </c>
+      <c r="E40" s="8">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D42" s="2">
         <v>130</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E42" s="2">
+        <v>130</v>
+      </c>
+      <c r="F42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
+  <mergeCells count="27">
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A20:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
